--- a/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AA23A8-A953-4297-8D11-F51D13E55FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AADE367-4005-4C88-B8C5-99E9E4305F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9478C9AF-87C0-460D-9269-F69253D5F1C5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59CF49B5-FB5F-472D-9C4C-504E08CB3DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
-    <t>dukeCdic en 2007 (Tasa respuesta: 99,94%)</t>
+    <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1237 +77,1237 @@
     <t>5,63%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
     <t>86,29%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>85,54%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,4%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>15,25%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>87,6%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>84,75%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60434C84-491B-484E-ACDB-8AA6C5986C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C8293-6594-43E7-B956-AFB4F4C8CF88}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2481,10 +2481,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>323</v>
@@ -2493,13 +2493,13 @@
         <v>329669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2514,13 @@
         <v>798656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>822</v>
@@ -2529,13 +2529,13 @@
         <v>849979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1666</v>
@@ -2544,13 +2544,13 @@
         <v>1648635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2618,13 @@
         <v>480348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>593</v>
@@ -2633,28 +2633,28 @@
         <v>627165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1065</v>
       </c>
       <c r="N19" s="7">
-        <v>1107513</v>
+        <v>1107512</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2669,13 @@
         <v>2793561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2702</v>
@@ -2684,13 +2684,13 @@
         <v>2749901</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5442</v>
@@ -2699,13 +2699,13 @@
         <v>5543463</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2747,7 @@
         <v>6507</v>
       </c>
       <c r="N21" s="7">
-        <v>6650976</v>
+        <v>6650975</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A45265-3037-4340-8AED-B5FD233A524B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01228476-ECFB-4F99-9431-D9EF3FE486AE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2906,13 +2906,13 @@
         <v>24576</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -2921,13 +2921,13 @@
         <v>30015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2936,13 +2936,13 @@
         <v>54591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2957,13 @@
         <v>87519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -2972,13 +2972,13 @@
         <v>81890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -2987,13 +2987,13 @@
         <v>169409</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3061,13 @@
         <v>70404</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -3076,13 +3076,13 @@
         <v>95531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -3091,13 +3091,13 @@
         <v>165935</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3112,13 @@
         <v>515313</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>461</v>
@@ -3127,13 +3127,13 @@
         <v>486764</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -3142,13 +3142,13 @@
         <v>1002077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3216,13 @@
         <v>196824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>195</v>
@@ -3231,13 +3231,13 @@
         <v>217846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
@@ -3249,10 +3249,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3267,13 @@
         <v>811482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>741</v>
@@ -3282,13 +3282,13 @@
         <v>810260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>1490</v>
@@ -3300,10 +3300,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,10 +3374,10 @@
         <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -3386,13 +3386,13 @@
         <v>175302</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -3401,13 +3401,13 @@
         <v>322479</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3422,13 @@
         <v>603142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -3437,13 +3437,13 @@
         <v>598466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1096</v>
@@ -3452,13 +3452,13 @@
         <v>1201608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3526,13 @@
         <v>183931</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -3541,13 +3541,13 @@
         <v>232397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -3556,13 +3556,13 @@
         <v>416328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3577,13 @@
         <v>758629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
@@ -3592,13 +3592,13 @@
         <v>809761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1510</v>
@@ -3607,13 +3607,13 @@
         <v>1568390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3681,13 @@
         <v>622911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>686</v>
@@ -3696,13 +3696,13 @@
         <v>751091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>1258</v>
@@ -3711,13 +3711,13 @@
         <v>1374002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,16 +3729,16 @@
         <v>2610</v>
       </c>
       <c r="D20" s="7">
-        <v>2776086</v>
+        <v>2776087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>2594</v>
@@ -3747,13 +3747,13 @@
         <v>2787141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>5204</v>
@@ -3762,13 +3762,13 @@
         <v>5563228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +3780,7 @@
         <v>3182</v>
       </c>
       <c r="D21" s="7">
-        <v>3398997</v>
+        <v>3398998</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5F124-F226-4D47-94A2-1128F3DDA1B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87467213-1947-4722-9D7A-F1CAEB194042}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +3969,13 @@
         <v>22139</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3984,13 +3984,13 @@
         <v>29075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -3999,13 +3999,13 @@
         <v>51214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4020,13 @@
         <v>93349</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4035,13 +4035,13 @@
         <v>84285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -4050,13 +4050,13 @@
         <v>177634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4124,13 @@
         <v>104278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -4139,13 +4139,13 @@
         <v>118101</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>216</v>
@@ -4154,13 +4154,13 @@
         <v>222379</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4175,13 @@
         <v>452889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -4190,13 +4190,13 @@
         <v>438493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>870</v>
@@ -4205,13 +4205,13 @@
         <v>891382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4279,13 @@
         <v>149895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -4294,13 +4294,13 @@
         <v>159266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -4309,13 +4309,13 @@
         <v>309161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4330,13 @@
         <v>868459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>830</v>
@@ -4345,13 +4345,13 @@
         <v>880686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1637</v>
@@ -4360,13 +4360,13 @@
         <v>1749146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4434,13 @@
         <v>133575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -4449,13 +4449,13 @@
         <v>158782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -4464,13 +4464,13 @@
         <v>292357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4485,13 @@
         <v>618119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -4500,13 +4500,13 @@
         <v>616973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1155</v>
@@ -4515,13 +4515,13 @@
         <v>1235091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4589,13 @@
         <v>168430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -4604,13 +4604,13 @@
         <v>193565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>335</v>
@@ -4619,13 +4619,13 @@
         <v>361995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4640,13 @@
         <v>765816</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>783</v>
@@ -4655,7 +4655,7 @@
         <v>842455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>304</v>
@@ -4676,7 +4676,7 @@
         <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4744,13 @@
         <v>578318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>598</v>
@@ -4759,13 +4759,13 @@
         <v>658789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>1146</v>
@@ -4774,13 +4774,13 @@
         <v>1237107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4795,13 @@
         <v>2798630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>2719</v>
@@ -4810,13 +4810,13 @@
         <v>2862891</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>5387</v>
@@ -4825,10 +4825,10 @@
         <v>5661522</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>323</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4B52E5-A3F3-4015-ABB1-005F7903A007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E5EB53-E4D7-45AE-A7BC-01AFF843E3A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5032,13 +5032,13 @@
         <v>20417</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -5047,13 +5047,13 @@
         <v>20207</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -5062,13 +5062,13 @@
         <v>40624</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5083,13 @@
         <v>79562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5098,13 +5098,13 @@
         <v>105513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>283</v>
@@ -5113,13 +5113,13 @@
         <v>185075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5187,13 @@
         <v>81298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -5202,13 +5202,13 @@
         <v>92531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -5217,13 +5217,13 @@
         <v>173830</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5238,13 @@
         <v>464663</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>804</v>
@@ -5253,13 +5253,13 @@
         <v>489366</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>1313</v>
@@ -5268,13 +5268,13 @@
         <v>954028</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5342,13 @@
         <v>126598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>252</v>
@@ -5357,13 +5357,13 @@
         <v>161246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>391</v>
@@ -5372,13 +5372,13 @@
         <v>287843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5393,13 @@
         <v>903197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>1247</v>
@@ -5408,13 +5408,13 @@
         <v>887144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>2062</v>
@@ -5423,13 +5423,13 @@
         <v>1790341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5497,13 @@
         <v>87996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -5512,13 +5512,13 @@
         <v>114742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>252</v>
@@ -5527,13 +5527,13 @@
         <v>202738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5548,13 @@
         <v>634402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>878</v>
@@ -5563,13 +5563,13 @@
         <v>641466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>1451</v>
@@ -5578,13 +5578,13 @@
         <v>1275868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5652,13 @@
         <v>141160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -5667,13 +5667,13 @@
         <v>160556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>403</v>
@@ -5682,13 +5682,13 @@
         <v>301716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5703,13 @@
         <v>813077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>1298</v>
@@ -5718,13 +5718,13 @@
         <v>971826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>2132</v>
@@ -5733,13 +5733,13 @@
         <v>1784903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5807,13 @@
         <v>457469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>868</v>
@@ -5822,13 +5822,13 @@
         <v>549282</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>1386</v>
@@ -5837,13 +5837,13 @@
         <v>1006751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5858,13 @@
         <v>2894901</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>4419</v>
@@ -5873,13 +5873,13 @@
         <v>3095314</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>7241</v>
@@ -5888,13 +5888,13 @@
         <v>5990215</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,7 +5950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AADE367-4005-4C88-B8C5-99E9E4305F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEC7047-72B7-481F-816D-CDD9622E9A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59CF49B5-FB5F-472D-9C4C-504E08CB3DAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDA380B3-6EBF-4B42-B414-F21581518F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
@@ -77,1116 +77,1140 @@
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
     <t>82,11%</t>
   </si>
   <si>
@@ -1265,9 +1289,6 @@
     <t>14,83%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
     <t>13,97%</t>
   </si>
   <si>
@@ -1290,9 +1311,6 @@
   </si>
   <si>
     <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
   </si>
   <si>
     <t>83,88%</t>
@@ -1719,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521C8293-6594-43E7-B956-AFB4F4C8CF88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF450D8-EBEA-402B-BAB4-3B23748DE762}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1998,13 +2016,13 @@
         <v>97111</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -2013,13 +2031,13 @@
         <v>137866</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>230</v>
@@ -2028,13 +2046,13 @@
         <v>234977</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2067,13 @@
         <v>481543</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -2064,13 +2082,13 @@
         <v>437730</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>916</v>
@@ -2079,13 +2097,13 @@
         <v>919273</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2159,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2171,13 @@
         <v>146919</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>142</v>
@@ -2168,13 +2186,13 @@
         <v>156640</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>281</v>
@@ -2183,13 +2201,13 @@
         <v>303559</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2222,13 @@
         <v>813797</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>765</v>
@@ -2219,13 +2237,13 @@
         <v>810602</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1521</v>
@@ -2234,13 +2252,13 @@
         <v>1624399</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2314,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2308,13 +2326,13 @@
         <v>87809</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -2323,13 +2341,13 @@
         <v>124159</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -2338,13 +2356,13 @@
         <v>211968</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2377,13 @@
         <v>590700</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>575</v>
@@ -2374,13 +2392,13 @@
         <v>559682</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1135</v>
@@ -2389,13 +2407,13 @@
         <v>1150382</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2481,13 @@
         <v>142016</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>174</v>
@@ -2478,13 +2496,13 @@
         <v>187653</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>323</v>
@@ -2493,13 +2511,13 @@
         <v>329669</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2532,13 @@
         <v>798656</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>822</v>
@@ -2529,13 +2547,13 @@
         <v>849979</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1666</v>
@@ -2544,13 +2562,13 @@
         <v>1648635</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2636,13 @@
         <v>480348</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>593</v>
@@ -2633,28 +2651,28 @@
         <v>627165</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1065</v>
       </c>
       <c r="N19" s="7">
-        <v>1107512</v>
+        <v>1107513</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2687,13 @@
         <v>2793561</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2702</v>
@@ -2684,13 +2702,13 @@
         <v>2749901</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5442</v>
@@ -2699,13 +2717,13 @@
         <v>5543463</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2765,7 @@
         <v>6507</v>
       </c>
       <c r="N21" s="7">
-        <v>6650975</v>
+        <v>6650976</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2761,7 +2779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01228476-ECFB-4F99-9431-D9EF3FE486AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A1A943-A23A-45A5-88C5-58034E8C6B41}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2906,13 +2924,13 @@
         <v>24576</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -2921,13 +2939,13 @@
         <v>30015</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -2936,13 +2954,13 @@
         <v>54591</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2975,13 @@
         <v>87519</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -2972,13 +2990,13 @@
         <v>81890</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -2987,13 +3005,13 @@
         <v>169409</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3079,13 @@
         <v>70404</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -3076,13 +3094,13 @@
         <v>95531</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -3091,13 +3109,13 @@
         <v>165935</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3130,13 @@
         <v>515313</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>461</v>
@@ -3127,13 +3145,13 @@
         <v>486764</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>944</v>
@@ -3142,10 +3160,10 @@
         <v>1002077</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>160</v>
@@ -3204,7 +3222,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3234,10 +3252,10 @@
         <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>373</v>
@@ -3246,13 +3264,13 @@
         <v>414669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3285,13 @@
         <v>811482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>741</v>
@@ -3282,13 +3300,13 @@
         <v>810260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1490</v>
@@ -3297,13 +3315,13 @@
         <v>1621743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3377,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3371,13 +3389,13 @@
         <v>147177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -3386,13 +3404,13 @@
         <v>175302</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -3401,13 +3419,13 @@
         <v>322479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3440,13 @@
         <v>603142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -3437,13 +3455,13 @@
         <v>598466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1096</v>
@@ -3452,13 +3470,13 @@
         <v>1201608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3544,13 @@
         <v>183931</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -3541,13 +3559,13 @@
         <v>232397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -3556,13 +3574,13 @@
         <v>416328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3595,13 @@
         <v>758629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
@@ -3592,13 +3610,13 @@
         <v>809761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1510</v>
@@ -3607,13 +3625,13 @@
         <v>1568390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3699,13 @@
         <v>622911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>686</v>
@@ -3696,13 +3714,13 @@
         <v>751091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>1258</v>
@@ -3711,13 +3729,13 @@
         <v>1374002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,16 +3747,16 @@
         <v>2610</v>
       </c>
       <c r="D20" s="7">
-        <v>2776087</v>
+        <v>2776086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>2594</v>
@@ -3747,28 +3765,28 @@
         <v>2787141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>5204</v>
       </c>
       <c r="N20" s="7">
-        <v>5563228</v>
+        <v>5563227</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +3798,7 @@
         <v>3182</v>
       </c>
       <c r="D21" s="7">
-        <v>3398998</v>
+        <v>3398997</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3810,7 +3828,7 @@
         <v>6462</v>
       </c>
       <c r="N21" s="7">
-        <v>6937230</v>
+        <v>6937229</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3824,7 +3842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87467213-1947-4722-9D7A-F1CAEB194042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7DB0C-F442-4FB8-89E2-14A0AE69D879}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,13 +3987,13 @@
         <v>22139</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3984,13 +4002,13 @@
         <v>29075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -3999,13 +4017,13 @@
         <v>51214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4038,13 @@
         <v>93349</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -4035,13 +4053,13 @@
         <v>84285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -4050,13 +4068,13 @@
         <v>177634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4142,13 @@
         <v>104278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -4139,13 +4157,13 @@
         <v>118101</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>216</v>
@@ -4154,13 +4172,13 @@
         <v>222379</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4193,13 @@
         <v>452889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -4190,13 +4208,13 @@
         <v>438493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>870</v>
@@ -4205,13 +4223,13 @@
         <v>891382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4285,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4279,13 +4297,13 @@
         <v>149895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -4294,13 +4312,13 @@
         <v>159266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -4309,13 +4327,13 @@
         <v>309161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4348,13 @@
         <v>868459</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>830</v>
@@ -4345,13 +4363,13 @@
         <v>880686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1637</v>
@@ -4360,13 +4378,13 @@
         <v>1749146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4440,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4434,13 +4452,13 @@
         <v>133575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -4449,13 +4467,13 @@
         <v>158782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -4464,13 +4482,13 @@
         <v>292357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4503,13 @@
         <v>618119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -4500,13 +4518,13 @@
         <v>616973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1155</v>
@@ -4515,13 +4533,13 @@
         <v>1235091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4589,13 +4607,13 @@
         <v>168430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -4604,13 +4622,13 @@
         <v>193565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>335</v>
@@ -4619,13 +4637,13 @@
         <v>361995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4658,13 @@
         <v>765816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>783</v>
@@ -4655,13 +4673,13 @@
         <v>842455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1546</v>
@@ -4670,13 +4688,13 @@
         <v>1608270</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4762,13 @@
         <v>578318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>598</v>
@@ -4759,13 +4777,13 @@
         <v>658789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>1146</v>
@@ -4774,13 +4792,13 @@
         <v>1237107</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4813,13 @@
         <v>2798630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>2719</v>
@@ -4810,13 +4828,13 @@
         <v>2862891</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>5387</v>
@@ -4825,13 +4843,13 @@
         <v>5661522</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E5EB53-E4D7-45AE-A7BC-01AFF843E3A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1628F2C3-F55D-497C-AA3D-AA2E5792A722}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,13 +5050,13 @@
         <v>20417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -5047,13 +5065,13 @@
         <v>20207</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>69</v>
@@ -5062,13 +5080,13 @@
         <v>40624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5101,13 @@
         <v>79562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -5098,13 +5116,13 @@
         <v>105513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>283</v>
@@ -5113,13 +5131,13 @@
         <v>185075</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5205,13 @@
         <v>81298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -5202,13 +5220,13 @@
         <v>92531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>271</v>
@@ -5217,13 +5235,13 @@
         <v>173830</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5256,13 @@
         <v>464663</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>804</v>
@@ -5253,13 +5271,13 @@
         <v>489366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>1313</v>
@@ -5268,13 +5286,13 @@
         <v>954028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5348,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5342,13 +5360,13 @@
         <v>126598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>252</v>
@@ -5357,13 +5375,13 @@
         <v>161246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>391</v>
@@ -5372,13 +5390,13 @@
         <v>287843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5411,13 @@
         <v>903197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>1247</v>
@@ -5408,13 +5426,13 @@
         <v>887144</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>2062</v>
@@ -5423,13 +5441,13 @@
         <v>1790341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,7 +5503,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5497,13 +5515,13 @@
         <v>87996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -5512,13 +5530,13 @@
         <v>114742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>252</v>
@@ -5527,13 +5545,13 @@
         <v>202738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5566,13 @@
         <v>634402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>878</v>
@@ -5563,13 +5581,13 @@
         <v>641466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>1451</v>
@@ -5578,13 +5596,13 @@
         <v>1275868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5652,13 +5670,13 @@
         <v>141160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>243</v>
@@ -5667,13 +5685,13 @@
         <v>160556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>403</v>
@@ -5682,13 +5700,13 @@
         <v>301716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5721,13 @@
         <v>813077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>1298</v>
@@ -5718,13 +5736,13 @@
         <v>971826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>2132</v>
@@ -5733,13 +5751,13 @@
         <v>1784903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5825,13 @@
         <v>457469</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>868</v>
@@ -5822,13 +5840,13 @@
         <v>549282</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>1386</v>
@@ -5837,13 +5855,13 @@
         <v>1006751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5876,13 @@
         <v>2894901</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>4419</v>
@@ -5873,13 +5891,13 @@
         <v>3095314</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>7241</v>
@@ -5888,13 +5906,13 @@
         <v>5990215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,7 +5968,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEC7047-72B7-481F-816D-CDD9622E9A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1BAA659-C2DD-4582-9C0C-FC624D12CA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDA380B3-6EBF-4B42-B414-F21581518F2C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB864BED-F739-4DB4-AAEC-F6F6D0E2F2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1195 +137,1237 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF450D8-EBEA-402B-BAB4-3B23748DE762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AC72CF-FFF7-491B-B755-396BA26D31BE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1855,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7">
-        <v>6494</v>
+        <v>76213</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1870,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="I4" s="7">
-        <v>20846</v>
+        <v>84253</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1885,10 +1927,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="N4" s="7">
-        <v>27340</v>
+        <v>160467</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1906,10 +1948,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>108864</v>
+        <v>39145</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1921,10 +1963,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>91909</v>
+        <v>28502</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1936,10 +1978,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="N5" s="7">
-        <v>200773</v>
+        <v>67646</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2010,49 +2052,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="D7" s="7">
-        <v>97111</v>
+        <v>443453</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>133</v>
+        <v>429</v>
       </c>
       <c r="I7" s="7">
-        <v>137866</v>
+        <v>438635</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>230</v>
+        <v>871</v>
       </c>
       <c r="N7" s="7">
-        <v>234977</v>
+        <v>882088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +2103,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>481</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>481543</v>
+        <v>135201</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>435</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>437730</v>
+        <v>136961</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>916</v>
+        <v>275</v>
       </c>
       <c r="N8" s="7">
-        <v>919273</v>
+        <v>272162</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,55 +2201,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>139</v>
+        <v>604</v>
       </c>
       <c r="D10" s="7">
-        <v>146919</v>
+        <v>649077</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>142</v>
+        <v>649</v>
       </c>
       <c r="I10" s="7">
-        <v>156640</v>
+        <v>703410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>281</v>
+        <v>1253</v>
       </c>
       <c r="N10" s="7">
-        <v>303559</v>
+        <v>1352487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,49 +2258,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>756</v>
+        <v>291</v>
       </c>
       <c r="D11" s="7">
-        <v>813797</v>
+        <v>311639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>765</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>810602</v>
+        <v>263832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1521</v>
+        <v>549</v>
       </c>
       <c r="N11" s="7">
-        <v>1624399</v>
+        <v>575471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,55 +2356,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="D13" s="7">
-        <v>87809</v>
+        <v>419399</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>121</v>
+        <v>454</v>
       </c>
       <c r="I13" s="7">
-        <v>124159</v>
+        <v>445968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>202</v>
+        <v>856</v>
       </c>
       <c r="N13" s="7">
-        <v>211968</v>
+        <v>865367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,49 +2413,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>560</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>590700</v>
+        <v>259110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>575</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>559682</v>
+        <v>237873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1135</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>1150382</v>
+        <v>496983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,55 +2511,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>149</v>
+        <v>671</v>
       </c>
       <c r="D16" s="7">
-        <v>142016</v>
+        <v>637725</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>174</v>
+        <v>682</v>
       </c>
       <c r="I16" s="7">
-        <v>187653</v>
+        <v>716444</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>323</v>
+        <v>1353</v>
       </c>
       <c r="N16" s="7">
-        <v>329669</v>
+        <v>1354169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,49 +2568,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>844</v>
+        <v>322</v>
       </c>
       <c r="D17" s="7">
-        <v>798656</v>
+        <v>302947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>822</v>
+        <v>314</v>
       </c>
       <c r="I17" s="7">
-        <v>849979</v>
+        <v>321188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>1666</v>
+        <v>636</v>
       </c>
       <c r="N17" s="7">
-        <v>1648635</v>
+        <v>624135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,49 +2672,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>472</v>
+        <v>2190</v>
       </c>
       <c r="D19" s="7">
-        <v>480348</v>
+        <v>2225867</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>593</v>
+        <v>2309</v>
       </c>
       <c r="I19" s="7">
-        <v>627165</v>
+        <v>2388711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1065</v>
+        <v>4499</v>
       </c>
       <c r="N19" s="7">
-        <v>1107513</v>
+        <v>4614578</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,49 +2723,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2740</v>
+        <v>1022</v>
       </c>
       <c r="D20" s="7">
-        <v>2793561</v>
+        <v>1048042</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>2702</v>
+        <v>986</v>
       </c>
       <c r="I20" s="7">
-        <v>2749901</v>
+        <v>988355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>5442</v>
+        <v>2008</v>
       </c>
       <c r="N20" s="7">
-        <v>5543463</v>
+        <v>2036398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A1A943-A23A-45A5-88C5-58034E8C6B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2A5DB5-EEE3-4536-AA31-F10C0239278C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,49 +2960,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>24576</v>
+        <v>78409</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7">
-        <v>30015</v>
+        <v>87836</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="N4" s="7">
-        <v>54591</v>
+        <v>166245</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +3011,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>87519</v>
+        <v>33686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>81890</v>
+        <v>24069</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>169409</v>
+        <v>57755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,49 +3115,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="D7" s="7">
-        <v>70404</v>
+        <v>352567</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
-        <v>88</v>
+        <v>377</v>
       </c>
       <c r="I7" s="7">
-        <v>95531</v>
+        <v>401277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
-        <v>155</v>
+        <v>706</v>
       </c>
       <c r="N7" s="7">
-        <v>165935</v>
+        <v>753844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,49 +3166,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>483</v>
+        <v>221</v>
       </c>
       <c r="D8" s="7">
-        <v>515313</v>
+        <v>233150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
-        <v>461</v>
+        <v>172</v>
       </c>
       <c r="I8" s="7">
-        <v>486764</v>
+        <v>181018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
-        <v>944</v>
+        <v>393</v>
       </c>
       <c r="N8" s="7">
-        <v>1002077</v>
+        <v>414168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,55 +3264,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>178</v>
+        <v>607</v>
       </c>
       <c r="D10" s="7">
-        <v>196824</v>
+        <v>664788</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>195</v>
+        <v>681</v>
       </c>
       <c r="I10" s="7">
-        <v>217846</v>
+        <v>750691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>373</v>
+        <v>1288</v>
       </c>
       <c r="N10" s="7">
-        <v>414669</v>
+        <v>1415478</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +3321,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>749</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>811482</v>
+        <v>343518</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
-        <v>741</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>810260</v>
+        <v>277415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
-        <v>1490</v>
+        <v>575</v>
       </c>
       <c r="N11" s="7">
-        <v>1621743</v>
+        <v>620934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,55 +3419,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>131</v>
+        <v>427</v>
       </c>
       <c r="D13" s="7">
-        <v>147177</v>
+        <v>476937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>157</v>
+        <v>477</v>
       </c>
       <c r="I13" s="7">
-        <v>175302</v>
+        <v>526913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
-        <v>288</v>
+        <v>904</v>
       </c>
       <c r="N13" s="7">
-        <v>322479</v>
+        <v>1003850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3476,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>551</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>603142</v>
+        <v>273382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
-        <v>545</v>
+        <v>225</v>
       </c>
       <c r="I14" s="7">
-        <v>598466</v>
+        <v>246855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>1096</v>
+        <v>480</v>
       </c>
       <c r="N14" s="7">
-        <v>1201608</v>
+        <v>520237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,55 +3574,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>170</v>
+        <v>654</v>
       </c>
       <c r="D16" s="7">
-        <v>183931</v>
+        <v>682675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
-        <v>219</v>
+        <v>783</v>
       </c>
       <c r="I16" s="7">
-        <v>232397</v>
+        <v>823660</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
-        <v>389</v>
+        <v>1437</v>
       </c>
       <c r="N16" s="7">
-        <v>416328</v>
+        <v>1506335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3631,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>735</v>
+        <v>251</v>
       </c>
       <c r="D17" s="7">
-        <v>758629</v>
+        <v>259885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
-        <v>775</v>
+        <v>211</v>
       </c>
       <c r="I17" s="7">
-        <v>809761</v>
+        <v>218498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
-        <v>1510</v>
+        <v>462</v>
       </c>
       <c r="N17" s="7">
-        <v>1568390</v>
+        <v>478383</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,49 +3735,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>572</v>
+        <v>2098</v>
       </c>
       <c r="D19" s="7">
-        <v>622911</v>
+        <v>2255376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>686</v>
+        <v>2395</v>
       </c>
       <c r="I19" s="7">
-        <v>751091</v>
+        <v>2590376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
-        <v>1258</v>
+        <v>4493</v>
       </c>
       <c r="N19" s="7">
-        <v>1374002</v>
+        <v>4845753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,49 +3786,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2610</v>
+        <v>1084</v>
       </c>
       <c r="D20" s="7">
-        <v>2776086</v>
+        <v>1143621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
-        <v>2594</v>
+        <v>885</v>
       </c>
       <c r="I20" s="7">
-        <v>2787141</v>
+        <v>947856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
-        <v>5204</v>
+        <v>1969</v>
       </c>
       <c r="N20" s="7">
-        <v>5563227</v>
+        <v>2091477</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3870,7 @@
         <v>6462</v>
       </c>
       <c r="N21" s="7">
-        <v>6937229</v>
+        <v>6937230</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3842,7 +3884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7DB0C-F442-4FB8-89E2-14A0AE69D879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFFDED0-C0F2-4D4F-87EB-6A1831C51D22}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,49 +4023,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>22139</v>
+        <v>82692</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>29075</v>
+        <v>89687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="N4" s="7">
-        <v>51214</v>
+        <v>172378</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +4074,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>93349</v>
+        <v>32796</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>84285</v>
+        <v>23673</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>177634</v>
+        <v>56470</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,49 +4178,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>430</v>
       </c>
       <c r="D7" s="7">
-        <v>104278</v>
+        <v>444799</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="I7" s="7">
-        <v>118101</v>
+        <v>467943</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
-        <v>216</v>
+        <v>889</v>
       </c>
       <c r="N7" s="7">
-        <v>222379</v>
+        <v>912742</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +4229,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>436</v>
+        <v>108</v>
       </c>
       <c r="D8" s="7">
-        <v>452889</v>
+        <v>112368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
-        <v>434</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7">
-        <v>438493</v>
+        <v>88651</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
-        <v>870</v>
+        <v>197</v>
       </c>
       <c r="N8" s="7">
-        <v>891382</v>
+        <v>201019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,55 +4327,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>141</v>
+        <v>726</v>
       </c>
       <c r="D10" s="7">
-        <v>149895</v>
+        <v>779541</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
-        <v>144</v>
+        <v>802</v>
       </c>
       <c r="I10" s="7">
-        <v>159266</v>
+        <v>864095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
-        <v>285</v>
+        <v>1528</v>
       </c>
       <c r="N10" s="7">
-        <v>309161</v>
+        <v>1643637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +4384,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>807</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>868459</v>
+        <v>238813</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
-        <v>830</v>
+        <v>172</v>
       </c>
       <c r="I11" s="7">
-        <v>880686</v>
+        <v>175857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
-        <v>1637</v>
+        <v>394</v>
       </c>
       <c r="N11" s="7">
-        <v>1749146</v>
+        <v>414670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,55 +4482,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>119</v>
+        <v>576</v>
       </c>
       <c r="D13" s="7">
-        <v>133575</v>
+        <v>628594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
-        <v>143</v>
+        <v>607</v>
       </c>
       <c r="I13" s="7">
-        <v>158782</v>
+        <v>649950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
-        <v>262</v>
+        <v>1183</v>
       </c>
       <c r="N13" s="7">
-        <v>292357</v>
+        <v>1278544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,49 +4539,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>570</v>
+        <v>113</v>
       </c>
       <c r="D14" s="7">
-        <v>618119</v>
+        <v>123100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
-        <v>585</v>
+        <v>121</v>
       </c>
       <c r="I14" s="7">
-        <v>616973</v>
+        <v>125805</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
-        <v>1155</v>
+        <v>234</v>
       </c>
       <c r="N14" s="7">
-        <v>1235091</v>
+        <v>248904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,55 +4637,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>166</v>
+        <v>728</v>
       </c>
       <c r="D16" s="7">
-        <v>168430</v>
+        <v>734044</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
-        <v>169</v>
+        <v>750</v>
       </c>
       <c r="I16" s="7">
-        <v>193565</v>
+        <v>819532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
-        <v>335</v>
+        <v>1478</v>
       </c>
       <c r="N16" s="7">
-        <v>361995</v>
+        <v>1553575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,49 +4694,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>763</v>
+        <v>201</v>
       </c>
       <c r="D17" s="7">
-        <v>765816</v>
+        <v>200202</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
-        <v>783</v>
+        <v>202</v>
       </c>
       <c r="I17" s="7">
-        <v>842455</v>
+        <v>216488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
-        <v>1546</v>
+        <v>403</v>
       </c>
       <c r="N17" s="7">
-        <v>1608270</v>
+        <v>416690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,49 +4798,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>548</v>
+        <v>2541</v>
       </c>
       <c r="D19" s="7">
-        <v>578318</v>
+        <v>2669669</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
-        <v>598</v>
+        <v>2708</v>
       </c>
       <c r="I19" s="7">
-        <v>658789</v>
+        <v>2891205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
-        <v>1146</v>
+        <v>5249</v>
       </c>
       <c r="N19" s="7">
-        <v>1237107</v>
+        <v>5560875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,49 +4849,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2668</v>
+        <v>675</v>
       </c>
       <c r="D20" s="7">
-        <v>2798630</v>
+        <v>707279</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
-        <v>2719</v>
+        <v>609</v>
       </c>
       <c r="I20" s="7">
-        <v>2862891</v>
+        <v>630475</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
-        <v>5387</v>
+        <v>1284</v>
       </c>
       <c r="N20" s="7">
-        <v>5661522</v>
+        <v>1337754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1628F2C3-F55D-497C-AA3D-AA2E5792A722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDBE85F-EE82-43C6-BD60-195773592F84}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,49 +5086,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>20417</v>
+        <v>62852</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="I4" s="7">
-        <v>20207</v>
+        <v>75889</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="N4" s="7">
-        <v>40624</v>
+        <v>138741</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,49 +5137,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>79562</v>
+        <v>37127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>105513</v>
+        <v>49831</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
-        <v>283</v>
+        <v>119</v>
       </c>
       <c r="N5" s="7">
-        <v>185075</v>
+        <v>86958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,49 +5241,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>98</v>
+        <v>381</v>
       </c>
       <c r="D7" s="7">
-        <v>81298</v>
+        <v>322453</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>647</v>
       </c>
       <c r="I7" s="7">
-        <v>92531</v>
+        <v>365774</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
-        <v>271</v>
+        <v>1028</v>
       </c>
       <c r="N7" s="7">
-        <v>173830</v>
+        <v>688227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,49 +5292,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>509</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>464663</v>
+        <v>223508</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
-        <v>804</v>
+        <v>330</v>
       </c>
       <c r="I8" s="7">
-        <v>489366</v>
+        <v>216123</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
-        <v>1313</v>
+        <v>556</v>
       </c>
       <c r="N8" s="7">
-        <v>954028</v>
+        <v>439631</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,55 +5390,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>139</v>
+        <v>639</v>
       </c>
       <c r="D10" s="7">
-        <v>126598</v>
+        <v>633623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
-        <v>252</v>
+        <v>1050</v>
       </c>
       <c r="I10" s="7">
-        <v>161246</v>
+        <v>702658</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
-        <v>391</v>
+        <v>1689</v>
       </c>
       <c r="N10" s="7">
-        <v>287843</v>
+        <v>1336280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +5447,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>815</v>
+        <v>315</v>
       </c>
       <c r="D11" s="7">
-        <v>903197</v>
+        <v>396172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
-        <v>1247</v>
+        <v>449</v>
       </c>
       <c r="I11" s="7">
-        <v>887144</v>
+        <v>345732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
-        <v>2062</v>
+        <v>764</v>
       </c>
       <c r="N11" s="7">
-        <v>1790341</v>
+        <v>741904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,55 +5545,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>442</v>
       </c>
       <c r="D13" s="7">
-        <v>87996</v>
+        <v>468004</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
-        <v>157</v>
+        <v>679</v>
       </c>
       <c r="I13" s="7">
-        <v>114742</v>
+        <v>480562</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
-        <v>252</v>
+        <v>1121</v>
       </c>
       <c r="N13" s="7">
-        <v>202738</v>
+        <v>948566</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,49 +5602,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>573</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>634402</v>
+        <v>254394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
-        <v>878</v>
+        <v>356</v>
       </c>
       <c r="I14" s="7">
-        <v>641466</v>
+        <v>275646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
-        <v>1451</v>
+        <v>582</v>
       </c>
       <c r="N14" s="7">
-        <v>1275868</v>
+        <v>530040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,55 +5700,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>160</v>
+        <v>637</v>
       </c>
       <c r="D16" s="7">
-        <v>141160</v>
+        <v>575535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
-        <v>243</v>
+        <v>968</v>
       </c>
       <c r="I16" s="7">
-        <v>160556</v>
+        <v>681007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
-        <v>403</v>
+        <v>1605</v>
       </c>
       <c r="N16" s="7">
-        <v>301716</v>
+        <v>1256542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,49 +5757,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>834</v>
+        <v>357</v>
       </c>
       <c r="D17" s="7">
-        <v>813077</v>
+        <v>378702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
-        <v>1298</v>
+        <v>573</v>
       </c>
       <c r="I17" s="7">
-        <v>971826</v>
+        <v>451375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
-        <v>2132</v>
+        <v>930</v>
       </c>
       <c r="N17" s="7">
-        <v>1784903</v>
+        <v>830077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,49 +5861,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>518</v>
+        <v>2178</v>
       </c>
       <c r="D19" s="7">
-        <v>457469</v>
+        <v>2062467</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
-        <v>868</v>
+        <v>3498</v>
       </c>
       <c r="I19" s="7">
-        <v>549282</v>
+        <v>2305889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
-        <v>1386</v>
+        <v>5676</v>
       </c>
       <c r="N19" s="7">
-        <v>1006751</v>
+        <v>4368356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,49 +5912,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2822</v>
+        <v>1162</v>
       </c>
       <c r="D20" s="7">
-        <v>2894901</v>
+        <v>1289903</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
-        <v>4419</v>
+        <v>1789</v>
       </c>
       <c r="I20" s="7">
-        <v>3095314</v>
+        <v>1338707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
-        <v>7241</v>
+        <v>2951</v>
       </c>
       <c r="N20" s="7">
-        <v>5990215</v>
+        <v>2628610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +6010,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1BAA659-C2DD-4582-9C0C-FC624D12CA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD32D7D-7223-4981-9BE0-8A99688F062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB864BED-F739-4DB4-AAEC-F6F6D0E2F2D2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7C385DC3-BAAA-437C-B783-5EFBBB4120F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>32,08%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>61,81%</t>
@@ -422,112 +365,58 @@
     <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>65,93%</t>
@@ -743,112 +632,58 @@
     <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
   </si>
   <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>76,55%</t>
@@ -1064,310 +899,256 @@
     <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
 </sst>
 </file>
@@ -1779,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AC72CF-FFF7-491B-B755-396BA26D31BE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD2997-D452-4D28-8BFC-BEA4BA4D5760}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1897,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>71</v>
+        <v>513</v>
       </c>
       <c r="D4" s="7">
-        <v>76213</v>
+        <v>519666</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1912,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>95</v>
+        <v>524</v>
       </c>
       <c r="I4" s="7">
-        <v>84253</v>
+        <v>522888</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1927,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>166</v>
+        <v>1037</v>
       </c>
       <c r="N4" s="7">
-        <v>160467</v>
+        <v>1042555</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1948,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>39145</v>
+        <v>174346</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1963,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="I5" s="7">
-        <v>28502</v>
+        <v>165463</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1978,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="N5" s="7">
-        <v>67646</v>
+        <v>339808</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1999,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2014,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2029,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2052,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>442</v>
+        <v>604</v>
       </c>
       <c r="D7" s="7">
-        <v>443453</v>
+        <v>649077</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2067,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>429</v>
+        <v>649</v>
       </c>
       <c r="I7" s="7">
-        <v>438635</v>
+        <v>703410</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2082,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>871</v>
+        <v>1253</v>
       </c>
       <c r="N7" s="7">
-        <v>882088</v>
+        <v>1352487</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2103,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="D8" s="7">
-        <v>135201</v>
+        <v>311639</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2118,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="I8" s="7">
-        <v>136961</v>
+        <v>263832</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2133,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>275</v>
+        <v>549</v>
       </c>
       <c r="N8" s="7">
-        <v>272162</v>
+        <v>575471</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2154,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>960716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2169,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>967242</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2184,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1802</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1927958</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2207,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>604</v>
+        <v>402</v>
       </c>
       <c r="D10" s="7">
-        <v>649077</v>
+        <v>419399</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2222,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>649</v>
+        <v>454</v>
       </c>
       <c r="I10" s="7">
-        <v>703410</v>
+        <v>445968</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2237,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1253</v>
+        <v>856</v>
       </c>
       <c r="N10" s="7">
-        <v>1352487</v>
+        <v>865367</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2258,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>311639</v>
+        <v>259110</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2273,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>263832</v>
+        <v>237873</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2288,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="N11" s="7">
-        <v>575471</v>
+        <v>496983</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2309,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>895</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>960716</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2324,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>967242</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2339,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1802</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1927958</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2362,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>402</v>
+        <v>671</v>
       </c>
       <c r="D13" s="7">
-        <v>419399</v>
+        <v>637725</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2377,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>454</v>
+        <v>682</v>
       </c>
       <c r="I13" s="7">
-        <v>445968</v>
+        <v>716444</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2392,10 +2173,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>856</v>
+        <v>1353</v>
       </c>
       <c r="N13" s="7">
-        <v>865367</v>
+        <v>1354169</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2413,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="D14" s="7">
-        <v>259110</v>
+        <v>302947</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2428,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="I14" s="7">
-        <v>237873</v>
+        <v>321188</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2443,10 +2224,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>481</v>
+        <v>636</v>
       </c>
       <c r="N14" s="7">
-        <v>496983</v>
+        <v>624135</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2464,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>940672</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2479,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1037632</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2494,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1989</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1978304</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2511,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>671</v>
+        <v>2190</v>
       </c>
       <c r="D16" s="7">
-        <v>637725</v>
+        <v>2225867</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2309</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2388711</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>682</v>
-      </c>
-      <c r="I16" s="7">
-        <v>716444</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4499</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4614577</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1353</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1354169</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>322</v>
+        <v>1022</v>
       </c>
       <c r="D17" s="7">
-        <v>302947</v>
+        <v>1048042</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>986</v>
+      </c>
+      <c r="I17" s="7">
+        <v>988355</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>314</v>
-      </c>
-      <c r="I17" s="7">
-        <v>321188</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2008</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2036398</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>636</v>
-      </c>
-      <c r="N17" s="7">
-        <v>624135</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3212</v>
       </c>
       <c r="D18" s="7">
-        <v>940672</v>
+        <v>3273909</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2634,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1037632</v>
+        <v>3377066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2649,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1989</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1978304</v>
+        <v>6650975</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2665,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2190</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2225867</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2309</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2388711</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4499</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4614578</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1022</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1048042</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>986</v>
-      </c>
-      <c r="I20" s="7">
-        <v>988355</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2008</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2036398</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3212</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3273909</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377066</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6650976</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2842,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2A5DB5-EEE3-4536-AA31-F10C0239278C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F460503-6DC7-4496-A05A-BD7D05FBD2D0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2859,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="D4" s="7">
-        <v>78409</v>
+        <v>430976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="I4" s="7">
-        <v>87836</v>
+        <v>489113</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>158</v>
+        <v>864</v>
       </c>
       <c r="N4" s="7">
-        <v>166245</v>
+        <v>920090</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="D5" s="7">
-        <v>33686</v>
+        <v>266836</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>24069</v>
+        <v>205087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>59</v>
+        <v>452</v>
       </c>
       <c r="N5" s="7">
-        <v>57755</v>
+        <v>471922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>668</v>
       </c>
       <c r="D6" s="7">
-        <v>112095</v>
+        <v>697812</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3077,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>694200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3092,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>217</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>224000</v>
+        <v>1392012</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3115,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>607</v>
       </c>
       <c r="D7" s="7">
-        <v>352567</v>
+        <v>664788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>377</v>
+        <v>681</v>
       </c>
       <c r="I7" s="7">
-        <v>401277</v>
+        <v>750691</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>706</v>
+        <v>1288</v>
       </c>
       <c r="N7" s="7">
-        <v>753844</v>
+        <v>1415478</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="D8" s="7">
-        <v>233150</v>
+        <v>343518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="I8" s="7">
-        <v>181018</v>
+        <v>277415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>393</v>
+        <v>575</v>
       </c>
       <c r="N8" s="7">
-        <v>414168</v>
+        <v>620934</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>927</v>
       </c>
       <c r="D9" s="7">
-        <v>585717</v>
+        <v>1008306</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3232,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>582295</v>
+        <v>1028106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3247,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>1863</v>
       </c>
       <c r="N9" s="7">
-        <v>1168012</v>
+        <v>2036412</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3270,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>607</v>
+        <v>427</v>
       </c>
       <c r="D10" s="7">
-        <v>664788</v>
+        <v>476937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>681</v>
+        <v>477</v>
       </c>
       <c r="I10" s="7">
-        <v>750691</v>
+        <v>526913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>1288</v>
+        <v>904</v>
       </c>
       <c r="N10" s="7">
-        <v>1415478</v>
+        <v>1003850</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="D11" s="7">
-        <v>343518</v>
+        <v>273382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>277415</v>
+        <v>246855</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="N11" s="7">
-        <v>620934</v>
+        <v>520237</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>927</v>
+        <v>682</v>
       </c>
       <c r="D12" s="7">
-        <v>1008306</v>
+        <v>750319</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3387,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1028106</v>
+        <v>773768</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3402,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1863</v>
+        <v>1384</v>
       </c>
       <c r="N12" s="7">
-        <v>2036412</v>
+        <v>1524087</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3425,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>427</v>
+        <v>654</v>
       </c>
       <c r="D13" s="7">
-        <v>476937</v>
+        <v>682675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>477</v>
+        <v>783</v>
       </c>
       <c r="I13" s="7">
-        <v>526913</v>
+        <v>823660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>904</v>
+        <v>1437</v>
       </c>
       <c r="N13" s="7">
-        <v>1003850</v>
+        <v>1506335</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>273382</v>
+        <v>259885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>246855</v>
+        <v>218498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="N14" s="7">
-        <v>520237</v>
+        <v>478383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>682</v>
+        <v>905</v>
       </c>
       <c r="D15" s="7">
-        <v>750319</v>
+        <v>942560</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3542,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>994</v>
       </c>
       <c r="I15" s="7">
-        <v>773768</v>
+        <v>1042158</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3557,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1384</v>
+        <v>1899</v>
       </c>
       <c r="N15" s="7">
-        <v>1524087</v>
+        <v>1984718</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3574,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>654</v>
+        <v>2098</v>
       </c>
       <c r="D16" s="7">
-        <v>682675</v>
+        <v>2255376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>783</v>
+        <v>2395</v>
       </c>
       <c r="I16" s="7">
-        <v>823660</v>
+        <v>2590376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>1437</v>
+        <v>4493</v>
       </c>
       <c r="N16" s="7">
-        <v>1506335</v>
+        <v>4845753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>251</v>
+        <v>1084</v>
       </c>
       <c r="D17" s="7">
-        <v>259885</v>
+        <v>1143621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>211</v>
+        <v>885</v>
       </c>
       <c r="I17" s="7">
-        <v>218498</v>
+        <v>947856</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>462</v>
+        <v>1969</v>
       </c>
       <c r="N17" s="7">
-        <v>478383</v>
+        <v>2091476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>905</v>
+        <v>3182</v>
       </c>
       <c r="D18" s="7">
-        <v>942560</v>
+        <v>3398997</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3697,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>994</v>
+        <v>3280</v>
       </c>
       <c r="I18" s="7">
-        <v>1042158</v>
+        <v>3538232</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3712,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1899</v>
+        <v>6462</v>
       </c>
       <c r="N18" s="7">
-        <v>1984718</v>
+        <v>6937229</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3728,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2098</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2255376</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2395</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2590376</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4493</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4845753</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1084</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1143621</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>885</v>
-      </c>
-      <c r="I20" s="7">
-        <v>947856</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1969</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2091477</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3182</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3398997</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3280</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3538232</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6462</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6937230</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3905,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFFDED0-C0F2-4D4F-87EB-6A1831C51D22}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A271D58-EC5F-4742-9A7D-F2DC48BFDDDC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3922,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>81</v>
+        <v>511</v>
       </c>
       <c r="D4" s="7">
-        <v>82692</v>
+        <v>527490</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>90</v>
+        <v>549</v>
       </c>
       <c r="I4" s="7">
-        <v>89687</v>
+        <v>557629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>171</v>
+        <v>1060</v>
       </c>
       <c r="N4" s="7">
-        <v>172378</v>
+        <v>1085119</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D5" s="7">
-        <v>32796</v>
+        <v>145164</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I5" s="7">
-        <v>23673</v>
+        <v>112325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="N5" s="7">
-        <v>56470</v>
+        <v>257489</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>650</v>
       </c>
       <c r="D6" s="7">
-        <v>115488</v>
+        <v>672654</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4140,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>669954</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4155,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1313</v>
       </c>
       <c r="N6" s="7">
-        <v>228848</v>
+        <v>1342608</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4178,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>430</v>
+        <v>726</v>
       </c>
       <c r="D7" s="7">
-        <v>444799</v>
+        <v>779541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>459</v>
+        <v>802</v>
       </c>
       <c r="I7" s="7">
-        <v>467943</v>
+        <v>864095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>889</v>
+        <v>1528</v>
       </c>
       <c r="N7" s="7">
-        <v>912742</v>
+        <v>1643637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="D8" s="7">
-        <v>112368</v>
+        <v>238813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="I8" s="7">
-        <v>88651</v>
+        <v>175857</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="N8" s="7">
-        <v>201019</v>
+        <v>414670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>948</v>
       </c>
       <c r="D9" s="7">
-        <v>557167</v>
+        <v>1018354</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4295,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>556594</v>
+        <v>1039952</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4310,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1086</v>
+        <v>1922</v>
       </c>
       <c r="N9" s="7">
-        <v>1113761</v>
+        <v>2058307</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4333,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>726</v>
+        <v>576</v>
       </c>
       <c r="D10" s="7">
-        <v>779541</v>
+        <v>628594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>802</v>
+        <v>607</v>
       </c>
       <c r="I10" s="7">
-        <v>864095</v>
+        <v>649950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>1528</v>
+        <v>1183</v>
       </c>
       <c r="N10" s="7">
-        <v>1643637</v>
+        <v>1278544</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>238813</v>
+        <v>123100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>175857</v>
+        <v>125805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>394</v>
+        <v>234</v>
       </c>
       <c r="N11" s="7">
-        <v>414670</v>
+        <v>248904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>948</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1018354</v>
+        <v>751694</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4450,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>728</v>
       </c>
       <c r="I12" s="7">
-        <v>1039952</v>
+        <v>775755</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4465,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1922</v>
+        <v>1417</v>
       </c>
       <c r="N12" s="7">
-        <v>2058307</v>
+        <v>1527448</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4488,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>576</v>
+        <v>728</v>
       </c>
       <c r="D13" s="7">
-        <v>628594</v>
+        <v>734044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>607</v>
+        <v>750</v>
       </c>
       <c r="I13" s="7">
-        <v>649950</v>
+        <v>819532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
-        <v>1183</v>
+        <v>1478</v>
       </c>
       <c r="N13" s="7">
-        <v>1278544</v>
+        <v>1553575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D14" s="7">
-        <v>123100</v>
+        <v>200202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="I14" s="7">
-        <v>125805</v>
+        <v>216488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>234</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>248904</v>
+        <v>416690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>929</v>
       </c>
       <c r="D15" s="7">
-        <v>751694</v>
+        <v>934246</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4605,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>728</v>
+        <v>952</v>
       </c>
       <c r="I15" s="7">
-        <v>775755</v>
+        <v>1036020</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4620,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1417</v>
+        <v>1881</v>
       </c>
       <c r="N15" s="7">
-        <v>1527448</v>
+        <v>1970265</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4637,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>728</v>
+        <v>2541</v>
       </c>
       <c r="D16" s="7">
-        <v>734044</v>
+        <v>2669669</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>750</v>
+        <v>2708</v>
       </c>
       <c r="I16" s="7">
-        <v>819532</v>
+        <v>2891205</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="M16" s="7">
-        <v>1478</v>
+        <v>5249</v>
       </c>
       <c r="N16" s="7">
-        <v>1553575</v>
+        <v>5560875</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>201</v>
+        <v>675</v>
       </c>
       <c r="D17" s="7">
-        <v>200202</v>
+        <v>707279</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>202</v>
+        <v>609</v>
       </c>
       <c r="I17" s="7">
-        <v>216488</v>
+        <v>630475</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>403</v>
+        <v>1284</v>
       </c>
       <c r="N17" s="7">
-        <v>416690</v>
+        <v>1337754</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>929</v>
+        <v>3216</v>
       </c>
       <c r="D18" s="7">
-        <v>934246</v>
+        <v>3376948</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4760,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>952</v>
+        <v>3317</v>
       </c>
       <c r="I18" s="7">
-        <v>1036020</v>
+        <v>3521680</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4775,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1881</v>
+        <v>6533</v>
       </c>
       <c r="N18" s="7">
-        <v>1970265</v>
+        <v>6898629</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4791,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2541</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2669669</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2708</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2891205</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5249</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5560875</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>675</v>
-      </c>
-      <c r="D20" s="7">
-        <v>707279</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>609</v>
-      </c>
-      <c r="I20" s="7">
-        <v>630475</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1284</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1337754</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3216</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3376948</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3317</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3521680</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6533</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6898629</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4968,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDBE85F-EE82-43C6-BD60-195773592F84}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81746CEC-2883-4EB3-A27C-11F0BDAB221E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4985,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="D4" s="7">
-        <v>62852</v>
+        <v>366201</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>154</v>
+        <v>801</v>
       </c>
       <c r="I4" s="7">
-        <v>75889</v>
+        <v>407975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1261</v>
       </c>
       <c r="N4" s="7">
-        <v>138741</v>
+        <v>774177</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="D5" s="7">
-        <v>37127</v>
+        <v>263674</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="I5" s="7">
-        <v>49831</v>
+        <v>252694</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>675</v>
       </c>
       <c r="N5" s="7">
-        <v>86958</v>
+        <v>516368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>724</v>
       </c>
       <c r="D6" s="7">
-        <v>99979</v>
+        <v>629875</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5203,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>235</v>
+        <v>1212</v>
       </c>
       <c r="I6" s="7">
-        <v>125720</v>
+        <v>660669</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5218,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>352</v>
+        <v>1936</v>
       </c>
       <c r="N6" s="7">
-        <v>225699</v>
+        <v>1290545</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5241,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>639</v>
       </c>
       <c r="D7" s="7">
-        <v>322453</v>
+        <v>598455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>647</v>
+        <v>1050</v>
       </c>
       <c r="I7" s="7">
-        <v>365774</v>
+        <v>626716</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
-        <v>1028</v>
+        <v>1689</v>
       </c>
       <c r="N7" s="7">
-        <v>688227</v>
+        <v>1225171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="D8" s="7">
-        <v>223508</v>
+        <v>585380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
-        <v>330</v>
+        <v>449</v>
       </c>
       <c r="I8" s="7">
-        <v>216123</v>
+        <v>320910</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>556</v>
+        <v>764</v>
       </c>
       <c r="N8" s="7">
-        <v>439631</v>
+        <v>906291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>607</v>
+        <v>954</v>
       </c>
       <c r="D9" s="7">
-        <v>545961</v>
+        <v>1183835</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5358,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>977</v>
+        <v>1499</v>
       </c>
       <c r="I9" s="7">
-        <v>581897</v>
+        <v>947626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5373,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1584</v>
+        <v>2453</v>
       </c>
       <c r="N9" s="7">
-        <v>1127858</v>
+        <v>2131462</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5396,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>639</v>
+        <v>442</v>
       </c>
       <c r="D10" s="7">
-        <v>633623</v>
+        <v>447636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>1050</v>
+        <v>679</v>
       </c>
       <c r="I10" s="7">
-        <v>702658</v>
+        <v>441556</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>1689</v>
+        <v>1121</v>
       </c>
       <c r="N10" s="7">
-        <v>1336280</v>
+        <v>889191</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>396172</v>
+        <v>251024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="I11" s="7">
-        <v>345732</v>
+        <v>279937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
-        <v>764</v>
+        <v>582</v>
       </c>
       <c r="N11" s="7">
-        <v>741904</v>
+        <v>530961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>954</v>
+        <v>668</v>
       </c>
       <c r="D12" s="7">
-        <v>1029795</v>
+        <v>698660</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5513,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1499</v>
+        <v>1035</v>
       </c>
       <c r="I12" s="7">
-        <v>1048390</v>
+        <v>721493</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5528,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2453</v>
+        <v>1703</v>
       </c>
       <c r="N12" s="7">
-        <v>2078184</v>
+        <v>1420152</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5551,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>442</v>
+        <v>637</v>
       </c>
       <c r="D13" s="7">
-        <v>468004</v>
+        <v>536323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>679</v>
+        <v>968</v>
       </c>
       <c r="I13" s="7">
-        <v>480562</v>
+        <v>604981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>1121</v>
+        <v>1605</v>
       </c>
       <c r="N13" s="7">
-        <v>948566</v>
+        <v>1141304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="D14" s="7">
-        <v>254394</v>
+        <v>379738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>356</v>
+        <v>573</v>
       </c>
       <c r="I14" s="7">
-        <v>275646</v>
+        <v>473107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>582</v>
+        <v>930</v>
       </c>
       <c r="N14" s="7">
-        <v>530040</v>
+        <v>852845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>668</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>722398</v>
+        <v>916061</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5668,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1035</v>
+        <v>1541</v>
       </c>
       <c r="I15" s="7">
-        <v>756208</v>
+        <v>1078088</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5683,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1703</v>
+        <v>2535</v>
       </c>
       <c r="N15" s="7">
-        <v>1478606</v>
+        <v>1994149</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5700,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>637</v>
+        <v>2178</v>
       </c>
       <c r="D16" s="7">
-        <v>575535</v>
+        <v>1948615</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
-        <v>968</v>
+        <v>3498</v>
       </c>
       <c r="I16" s="7">
-        <v>681007</v>
+        <v>2081228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
-        <v>1605</v>
+        <v>5676</v>
       </c>
       <c r="N16" s="7">
-        <v>1256542</v>
+        <v>4029843</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>357</v>
+        <v>1162</v>
       </c>
       <c r="D17" s="7">
-        <v>378702</v>
+        <v>1479816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
-        <v>573</v>
+        <v>1789</v>
       </c>
       <c r="I17" s="7">
-        <v>451375</v>
+        <v>1326648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
-        <v>930</v>
+        <v>2951</v>
       </c>
       <c r="N17" s="7">
-        <v>830077</v>
+        <v>2806464</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3340</v>
       </c>
       <c r="D18" s="7">
-        <v>954237</v>
+        <v>3428431</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5823,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1541</v>
+        <v>5287</v>
       </c>
       <c r="I18" s="7">
-        <v>1132382</v>
+        <v>3407876</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5838,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2535</v>
+        <v>8627</v>
       </c>
       <c r="N18" s="7">
-        <v>2086619</v>
+        <v>6836307</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5854,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2178</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2062467</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3498</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2305889</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5676</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4368356</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1162</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1289903</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1789</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1338707</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2951</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2628610</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3340</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3352370</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5287</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3644596</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8627</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6996966</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
